--- a/P2-RE-Dispatcher/Data/Config.xlsx
+++ b/P2-RE-Dispatcher/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/F30597D3C0B08C65/Documents/UiPath/P2-RE/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f30597d3c0b08c65/Documents/UiPath/Generate-Yearly-Report/P2-RE-Dispatcher/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{53F025F0-0A9C-4420-97B4-56804FF4BEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47E82EFC-3071-48A6-848B-96F807C1C57F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{53F025F0-0A9C-4420-97B4-56804FF4BEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1394322-F418-4FDF-941F-54475579BC30}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -159,9 +159,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
     <t>in_cred</t>
   </si>
   <si>
@@ -172,13 +169,26 @@
   </si>
   <si>
     <t>https://acme-test.uipath.com/login</t>
+  </si>
+  <si>
+    <t>P2-GenerateYearlyReport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+P2-GenerateYearlyReport_Dispatcher</t>
+  </si>
+  <si>
+    <t>in_workurl</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -202,6 +212,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,6 +249,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,6 +265,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -599,8 +620,8 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -610,7 +631,9 @@
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
@@ -629,14 +652,28 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
         <v>46</v>
       </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2801,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2849,14 +2886,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>

--- a/P2-RE-Dispatcher/Data/Config.xlsx
+++ b/P2-RE-Dispatcher/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f30597d3c0b08c65/Documents/UiPath/Generate-Yearly-Report/P2-RE-Dispatcher/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{53F025F0-0A9C-4420-97B4-56804FF4BEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1394322-F418-4FDF-941F-54475579BC30}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{53F025F0-0A9C-4420-97B4-56804FF4BEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3ED41E29-B5A8-4128-9CFD-93BC3C78546E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -159,9 +159,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>in_cred</t>
-  </si>
-  <si>
     <t>Acme_Cred</t>
   </si>
   <si>
@@ -182,6 +179,12 @@
   </si>
   <si>
     <t>https://acme-test.uipath.com/work-items</t>
+  </si>
+  <si>
+    <t>in_type</t>
+  </si>
+  <si>
+    <t>WI4</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -621,7 +624,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -632,7 +635,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -655,26 +658,33 @@
         <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
